--- a/biology/Botanique/Begonia_glabra/Begonia_glabra.xlsx
+++ b/biology/Botanique/Begonia_glabra/Begonia_glabra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Begonia glabra est une espèce de plantes de la famille des Begoniaceae. Ce bégonia est originaire d'Amérique du Sud. L'espèce fait partie de la section Wageneria. Elle a été décrite en 1775 par Fusée-Aublet (1720-1778). L'épithète spécifique, glabra, signifie glabre, sans poil[3].
-En Guyane, on l'appelle Loseille bois, Salade tortue, Salade toti (créole), Ewo'j asikalu (Wayãpi), Wayam βan (Palikur)[4],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia glabra est une espèce de plantes de la famille des Begoniaceae. Ce bégonia est originaire d'Amérique du Sud. L'espèce fait partie de la section Wageneria. Elle a été décrite en 1775 par Fusée-Aublet (1720-1778). L'épithète spécifique, glabra, signifie glabre, sans poil.
+En Guyane, on l'appelle Loseille bois, Salade tortue, Salade toti (créole), Ewo'j asikalu (Wayãpi), Wayam βan (Palikur),.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Begonia glabra est une plante herbacée, épiphyte, lianescente, grimpante ou recouvrante, à tiges rampantes s'enracinant aux nœuds.
 Ses feuilles mesurent 4-12,5 x 3-8(9) cm, et sont entièrement glabres, ± symétriques, herbacées, variables, larges, de forme ovale à ovale-suborbiculée, obtuses acuminées à l'apex, subcordées à la base, avec 3-5 nervures principales.
@@ -530,7 +544,7 @@
 Le fruit est une samare de forme largement ovoïde, mesurant 6 à 10 mm de long.
 Il porte trois ailes : une nettement allongée, de forme oblongue à ovale-triangulaire, longue d'environ 1-1,4 cm, et les 2 autres, très étroites, marginiformes, longues d'environ 0,5 cm.
 Les bractéoles ± caduques, ne sont pas accrescentes.
-Les graines sont minuscules, cylindriques, longues de 0,5 mm, avec des sacs terminaux[6],[7],[5].
+Les graines sont minuscules, cylindriques, longues de 0,5 mm, avec des sacs terminaux.
 </t>
         </is>
       </c>
@@ -559,9 +573,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Begonia glabra est naturellement présent du Mexique  au Brésil en passant par le Belize, le Costa Rica, le Honduras, le Guatemala, le Nicaragua, le Panama, Cuba, la Jamaïque, les Antilles, Trinidad et Tobago, la Colombie, le Venezuela, l'Équateur, le Pérou, la Bolivie, le Guyana, le Suriname et la Guyane[8],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia glabra est naturellement présent du Mexique  au Brésil en passant par le Belize, le Costa Rica, le Honduras, le Guatemala, le Nicaragua, le Panama, Cuba, la Jamaïque, les Antilles, Trinidad et Tobago, la Colombie, le Venezuela, l'Équateur, le Pérou, la Bolivie, le Guyana, le Suriname et la Guyane,.
 </t>
         </is>
       </c>
@@ -590,10 +606,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Begonia glabra pousse dans les forêts sempervirentes de plaine, autour de 100–200 m d'altitude[6].
-En Guyane, cette une petite plante typique des forêts de l'intérieur est épiphyte du sous-bois croissant sur les rochers[4] et à la base des troncs d'arbres. Elle y fleurit en mai, août et septembre, et fructifie en juin, août, septembre et novembre[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia glabra pousse dans les forêts sempervirentes de plaine, autour de 100–200 m d'altitude.
+En Guyane, cette une petite plante typique des forêts de l'intérieur est épiphyte du sous-bois croissant sur les rochers et à la base des troncs d'arbres. Elle y fleurit en mai, août et septembre, et fructifie en juin, août, septembre et novembre.
 </t>
         </is>
       </c>
@@ -622,11 +640,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles de Begonia glabra sont consommées par les Sainte-Luciens de Saül contre les infections intestinales et les inflammations de l'estomac[9].
-Les Wayãpi utilisent abondamment cette plante pour soigner les myases à Larva migrans, lors de leur pénétration entre les orteils, pénétration qui s'accompagne de démangeaisons, surtout chez les enfants[4].
-Begonia glabra aurait des propriétés alexitères sur le venin de Bothrops asper[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles de Begonia glabra sont consommées par les Sainte-Luciens de Saül contre les infections intestinales et les inflammations de l'estomac.
+Les Wayãpi utilisent abondamment cette plante pour soigner les myases à Larva migrans, lors de leur pénétration entre les orteils, pénétration qui s'accompagne de démangeaisons, surtout chez les enfants.
+Begonia glabra aurait des propriétés alexitères sur le venin de Bothrops asper.
 </t>
         </is>
       </c>
@@ -655,10 +675,12 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Begonia glabra contient deux flavonoïdes lipophiles originaux : la quercétine-3,3',7-triméthyléther et la 8-méthoxyquercétine-3.3',7-triméthyléther[11],[12]
-Toutes les espèces de Begoniaceae accumulent des oxalates solubles dans leurs tissus[13].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia glabra contient deux flavonoïdes lipophiles originaux : la quercétine-3,3',7-triméthyléther et la 8-méthoxyquercétine-3.3',7-triméthyléther,
+Toutes les espèces de Begoniaceae accumulent des oxalates solubles dans leurs tissus.
 </t>
         </is>
       </c>
@@ -687,9 +709,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant[14] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant : 
 « 2. BEGONIA (glabra) foliis cordatis, ſerratis ; flore parvo, è viridi candicante, mas &amp; femina. {Tabula 349.)
 Differt hæc ſpecies, tum mas, tum femina, caulibus decumbentibus, nodoſis, &amp; ad nodos radicoſis ; foliis cordatis, glabris, dentatis, acucis ; floribus viridibus, minoribus, &amp; fructu parvo. 
 Habitat ſupra truncos arborum vetuſtarum, in ſylvis Sinémarienfibus. »
@@ -732,9 +756,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (6 février 2017)[15] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (6 février 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Begonia glabra var. amplifolia (A. DC.) L.B. Sm. &amp; B.G. Schub.
 variété Begonia glabra var. coralipetiolis hort.
 variété Begonia glabra var. cordifolia (C. DC.) Irmsch.
